--- a/SourceProjectMetrics - 2.xlsx
+++ b/SourceProjectMetrics - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U95405\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F730D6F-F96B-44D5-9967-ADB1A333CF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC057909-3706-42B7-A516-A6A0FE401CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="31" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -475,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>15</v>
@@ -498,13 +498,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3">
         <v>15</v>
       </c>
       <c r="I3" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -518,22 +518,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5</v>
+        <v>150</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>0.5</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3">
         <v>0.5</v>
       </c>
       <c r="I4" s="3">
-        <v>0.5</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/SourceProjectMetrics - 2.xlsx
+++ b/SourceProjectMetrics - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U95405\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC057909-3706-42B7-A516-A6A0FE401CE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F730D6F-F96B-44D5-9967-ADB1A333CF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="31" r:id="rId1"/>
@@ -430,7 +430,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -475,7 +475,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -483,10 +483,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3">
         <v>15</v>
@@ -498,13 +498,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3">
         <v>15</v>
       </c>
       <c r="I3" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -518,22 +518,22 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3">
-        <v>150</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>37</v>
+        <v>0.5</v>
       </c>
       <c r="H4" s="3">
         <v>0.5</v>
       </c>
       <c r="I4" s="3">
-        <v>130</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/SourceProjectMetrics - 2.xlsx
+++ b/SourceProjectMetrics - 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U95405\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F730D6F-F96B-44D5-9967-ADB1A333CF54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5982F3-2054-47DF-B62B-A86FD85C58CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Source" sheetId="31" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91721944-4901-4ECD-8F93-1CB5CAB3ABCD}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,7 +438,7 @@
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -449,15 +449,15 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C2" s="3">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -475,18 +475,33 @@
         <v>7</v>
       </c>
       <c r="I2" s="3">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3">
+        <v>7</v>
+      </c>
+      <c r="N2" s="3">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D3" s="3">
         <v>15</v>
@@ -498,16 +513,31 @@
         <v>17</v>
       </c>
       <c r="G3" s="3">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="H3" s="3">
         <v>15</v>
       </c>
       <c r="I3" s="3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3">
+        <v>7</v>
+      </c>
+      <c r="K3" s="3">
+        <v>17</v>
+      </c>
+      <c r="L3" s="3">
+        <v>100</v>
+      </c>
+      <c r="M3" s="3">
         <v>15</v>
       </c>
+      <c r="N3" s="3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -518,22 +548,37 @@
         <v>3</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="E4" s="3">
-        <v>0.5</v>
+        <v>150</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="3">
-        <v>0.5</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3">
         <v>0.5</v>
       </c>
       <c r="I4" s="3">
+        <v>130</v>
+      </c>
+      <c r="J4" s="3">
+        <v>150</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>37</v>
+      </c>
+      <c r="M4" s="3">
         <v>0.5</v>
+      </c>
+      <c r="N4" s="3">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
